--- a/data/trans_dic/POLIPATOLOGIA_Lim_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_Lim_2-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3414199189680838</v>
+        <v>0.3380387283429406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2681465006022148</v>
+        <v>0.271475691965217</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3130497514010366</v>
+        <v>0.3120803131531607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4849994097050579</v>
+        <v>0.48312258562786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4552131204154011</v>
+        <v>0.4543487484229676</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5493454567960564</v>
+        <v>0.5494057102451251</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4313103706128819</v>
+        <v>0.4313807946694229</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.384712304996799</v>
+        <v>0.3842052739333682</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4599390458603882</v>
+        <v>0.4574774693721765</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4016519715337361</v>
+        <v>0.4041917047315383</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.332969384518907</v>
+        <v>0.3375609065931164</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3859703895491082</v>
+        <v>0.386874818376743</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5415758165726543</v>
+        <v>0.5387757249816778</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5207910188037495</v>
+        <v>0.5224306068045921</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6026082459997111</v>
+        <v>0.6052301044077038</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4761319591417347</v>
+        <v>0.4738548562935619</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4310283961918261</v>
+        <v>0.4319570448792498</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5054170075269649</v>
+        <v>0.5051136950497019</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08372092544757466</v>
+        <v>0.08403851360626832</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09624995247380511</v>
+        <v>0.09613529447904635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1414703790643246</v>
+        <v>0.1421406113791148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1522715757278924</v>
+        <v>0.1522295436037303</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1678331998009996</v>
+        <v>0.1675262962883612</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2448807786710966</v>
+        <v>0.2437070076019248</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1205359745098281</v>
+        <v>0.1213238719152482</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1365794011012385</v>
+        <v>0.1356246069823051</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1942257938559621</v>
+        <v>0.1953579080060513</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1103655309733216</v>
+        <v>0.1122264541715944</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1244728393959781</v>
+        <v>0.1235635001550332</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1742208391374768</v>
+        <v>0.1735024824555765</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1910075981647388</v>
+        <v>0.1898623091413727</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2042660102383785</v>
+        <v>0.2041276576867914</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2787761795687369</v>
+        <v>0.2789974755181895</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1439465678043368</v>
+        <v>0.1447711669014593</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1580698808373008</v>
+        <v>0.1577018318731146</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.218343030111265</v>
+        <v>0.2210833489296677</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.08941418772128087</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1266077993969288</v>
+        <v>0.1266077993969287</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.1071762577479655</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.045057627806129</v>
+        <v>0.04293865105247156</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06591984632286484</v>
+        <v>0.06688103494974146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1036471283671696</v>
+        <v>0.10463070617485</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0805675721070806</v>
+        <v>0.07647667189802719</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08080474727593652</v>
+        <v>0.07850200605847918</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2009487106652057</v>
+        <v>0.2016564149117337</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06798495878758749</v>
+        <v>0.06730870861345714</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07946211083277972</v>
+        <v>0.07871522635838889</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1596583901489103</v>
+        <v>0.158712525532506</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09745007439165138</v>
+        <v>0.09343137993646768</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1179262903984371</v>
+        <v>0.1188730919519259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1525211670101394</v>
+        <v>0.1571444958504968</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1412407758473184</v>
+        <v>0.1413718210271811</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1355071613980199</v>
+        <v>0.1358945214673692</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2567418548449657</v>
+        <v>0.2563603070394319</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.105479579760937</v>
+        <v>0.1073074611923242</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1171733729195245</v>
+        <v>0.1176196071717839</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1968842605015462</v>
+        <v>0.1988581258716801</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.15696643814279</v>
+        <v>0.1578899004052632</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1383603111895158</v>
+        <v>0.1373832536419334</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1678098131002535</v>
+        <v>0.1699232047616936</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2767756790262</v>
+        <v>0.2761575565358674</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2424160950896444</v>
+        <v>0.2429738728991148</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3107488442967679</v>
+        <v>0.3107156695781753</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2217707880736244</v>
+        <v>0.222638782387032</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.194803791938099</v>
+        <v>0.1947046426791833</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.245962379470587</v>
+        <v>0.2452035408745784</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.183685796502623</v>
+        <v>0.1840076045319523</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1620111271958762</v>
+        <v>0.1618247616293267</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1958840262274119</v>
+        <v>0.1964020248868977</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3070833185634839</v>
+        <v>0.3062617006421676</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.27281692145381</v>
+        <v>0.273605595661225</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3366937241873264</v>
+        <v>0.3367145405952683</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2434157048085464</v>
+        <v>0.2427896317844308</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2146065132427573</v>
+        <v>0.2156403549418704</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2644837984468165</v>
+        <v>0.2641713106933595</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>332763</v>
+        <v>329467</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>202276</v>
+        <v>204787</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>181108</v>
+        <v>180548</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>648831</v>
+        <v>646320</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>452782</v>
+        <v>451923</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>451583</v>
+        <v>451632</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>997379</v>
+        <v>997542</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>672865</v>
+        <v>671978</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>644175</v>
+        <v>640728</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>391467</v>
+        <v>393943</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>251174</v>
+        <v>254638</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>223295</v>
+        <v>223818</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>724519</v>
+        <v>720773</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>518010</v>
+        <v>519641</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>495367</v>
+        <v>497522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1101027</v>
+        <v>1095761</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>753872</v>
+        <v>755496</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>707870</v>
+        <v>707446</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>164424</v>
+        <v>165048</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>199852</v>
+        <v>199614</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>315559</v>
+        <v>317054</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>267663</v>
+        <v>267590</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>333703</v>
+        <v>333093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>531732</v>
+        <v>529183</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>448606</v>
+        <v>451538</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>555152</v>
+        <v>551271</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>854974</v>
+        <v>859958</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>216753</v>
+        <v>220408</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>258454</v>
+        <v>256565</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>388611</v>
+        <v>387009</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>335754</v>
+        <v>333741</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>406142</v>
+        <v>405867</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>605332</v>
+        <v>605813</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>535735</v>
+        <v>538804</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>642504</v>
+        <v>641008</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>961137</v>
+        <v>973200</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21681</v>
+        <v>20661</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36051</v>
+        <v>36576</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>73754</v>
+        <v>74454</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>36951</v>
+        <v>35075</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>44373</v>
+        <v>43109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>147673</v>
+        <v>148193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>63893</v>
+        <v>63258</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>87093</v>
+        <v>86274</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>230940</v>
+        <v>229572</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46891</v>
+        <v>44957</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>64492</v>
+        <v>65010</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>108532</v>
+        <v>111822</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>64777</v>
+        <v>64837</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74412</v>
+        <v>74625</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>188674</v>
+        <v>188393</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>99131</v>
+        <v>100849</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>128425</v>
+        <v>128914</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>284786</v>
+        <v>287641</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>536791</v>
+        <v>539949</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>467328</v>
+        <v>464028</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>590805</v>
+        <v>598246</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>983724</v>
+        <v>981527</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>856238</v>
+        <v>858208</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1158567</v>
+        <v>1158443</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1546632</v>
+        <v>1552686</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1346039</v>
+        <v>1345354</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1782979</v>
+        <v>1777478</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>628165</v>
+        <v>629266</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>547212</v>
+        <v>546582</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>689646</v>
+        <v>691469</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1091445</v>
+        <v>1088525</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>963617</v>
+        <v>966402</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1255298</v>
+        <v>1255375</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1697584</v>
+        <v>1693218</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1482870</v>
+        <v>1490014</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1917240</v>
+        <v>1914975</v>
       </c>
     </row>
     <row r="20">
